--- a/results_exact/31_transbordo_porto.xlsx
+++ b/results_exact/31_transbordo_porto.xlsx
@@ -444,29 +444,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,29 +476,29 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1534216.04</v>
+        <v>178404.652</v>
       </c>
       <c r="E2" t="n">
-        <v>31617.12525818695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30433.33074181282</v>
+        <v>465403.44</v>
       </c>
       <c r="C3" t="n">
-        <v>147971.3212581872</v>
+        <v>54080.26444051618</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1628912.04</v>
       </c>
     </row>
     <row r="4">
@@ -508,29 +508,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295345.7412581869</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>271698.8075594836</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>457433.2484405163</v>
       </c>
       <c r="E4" t="n">
-        <v>433786.3147418131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2831204.26</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -542,17 +542,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2831204.26</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294755.512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -645,38 +645,38 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>261752598.5844</v>
+        <v>14994911.0006</v>
       </c>
       <c r="D2" t="n">
-        <v>5394197.740299276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5192230.557860686</v>
+        <v>51664435.8744</v>
       </c>
       <c r="B3" t="n">
-        <v>17302286.59471983</v>
+        <v>8417052.357521938</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>178659072.5472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50388936.91605928</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>40029385.31773872</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59905458.21577002</v>
       </c>
       <c r="D4" t="n">
-        <v>74008283.15810072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>331052714.1218001</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>265623583.6732</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11072803.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50288237.90232001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -784,38 +784,38 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>41613769025.752</v>
+        <v>3328602635.1552</v>
       </c>
       <c r="D2" t="n">
-        <v>871442272.359989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>843826178.8114738</v>
+        <v>12827612504.484</v>
       </c>
       <c r="B3" t="n">
-        <v>2760789723.506753</v>
+        <v>2287671979.80934</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44182284390.552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11683233670.45793</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10747812523.65269</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15621674786.18251</v>
       </c>
       <c r="D4" t="n">
-        <v>13146306365.24965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>61963028633.29501</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61963028633.295</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2129234825.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9313616874.408241</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1419733769.006296</v>
+        <v>1245716706.325244</v>
       </c>
       <c r="B2" t="n">
-        <v>151237786096863.2</v>
+        <v>145843884068344</v>
       </c>
     </row>
   </sheetData>
